--- a/haunting_mars/007-oce_combat.xlsx
+++ b/haunting_mars/007-oce_combat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAD4485-FD22-2741-AF51-886FB44B84B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD6E236-7E56-184E-96D2-BD6C59E03F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="500" windowWidth="26440" windowHeight="19740" xr2:uid="{11523083-D502-A846-9763-D7F697EE4739}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
   <si>
     <t>HP</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Vpod</t>
   </si>
   <si>
-    <t>Synth</t>
-  </si>
-  <si>
     <t>5.25</t>
   </si>
   <si>
@@ -246,6 +243,51 @@
   </si>
   <si>
     <t>HD Dakuaitou 2</t>
+  </si>
+  <si>
+    <t>Espada</t>
+  </si>
+  <si>
+    <t>Shotgun-15, 6d pi++</t>
+  </si>
+  <si>
+    <t>Mahmoud</t>
+  </si>
+  <si>
+    <t>Tetsuo</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Vladi</t>
+  </si>
+  <si>
+    <t>Rifle-11: 6d+2 (3) pi</t>
+  </si>
+  <si>
+    <t>Rifle-12: 6d+2 (3) pi</t>
+  </si>
+  <si>
+    <t>Grenade-11: 5dx3 (10)</t>
+  </si>
+  <si>
+    <t>RR Flexi</t>
+  </si>
+  <si>
+    <t>Cutter-10, 3d (5) burn</t>
+  </si>
+  <si>
+    <t>Ocon SFF</t>
   </si>
 </sst>
 </file>
@@ -289,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -300,7 +342,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,9 +360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +400,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +506,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,16 +656,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA1C932-CBEF-2845-A2B3-C7250724D51E}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="4" width="5.6640625" customWidth="1"/>
     <col min="5" max="5" width="5.83203125" customWidth="1"/>
@@ -674,10 +715,10 @@
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -706,7 +747,7 @@
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>67</v>
@@ -733,12 +774,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -750,13 +791,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -764,7 +808,7 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -776,13 +820,13 @@
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -790,7 +834,7 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -808,7 +852,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -816,7 +860,7 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -828,21 +872,21 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -854,27 +898,27 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -886,21 +930,21 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
+      <c r="A10" t="s">
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -912,21 +956,21 @@
         <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -938,24 +982,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -967,27 +1011,27 @@
         <v>3</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -999,24 +1043,24 @@
         <v>3</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -1028,18 +1072,18 @@
         <v>3</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>64</v>
+      <c r="A15" t="s">
+        <v>63</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -1054,21 +1098,21 @@
         <v>2</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>65</v>
+      <c r="A16" t="s">
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1080,13 +1124,42 @@
         <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1272,7 +1345,7 @@
         <v>26</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -1302,6 +1375,198 @@
       </c>
       <c r="J26" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/haunting_mars/007-oce_combat.xlsx
+++ b/haunting_mars/007-oce_combat.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/Documents/personal/rpg/posthuman/haunting_mars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD6E236-7E56-184E-96D2-BD6C59E03F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AF3D66-251C-8348-9D10-8AE23EEB6405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="500" windowWidth="26440" windowHeight="19740" xr2:uid="{11523083-D502-A846-9763-D7F697EE4739}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="82">
   <si>
     <t>HP</t>
   </si>
@@ -68,12 +68,6 @@
     <t>Move</t>
   </si>
   <si>
-    <t>Punch-9, 3d cr</t>
-  </si>
-  <si>
-    <t>drill-9, 8d cut</t>
-  </si>
-  <si>
     <t>Shen zuan 1</t>
   </si>
   <si>
@@ -98,12 +92,6 @@
     <t>Shen zuan 2</t>
   </si>
   <si>
-    <t>Shen zuan 3</t>
-  </si>
-  <si>
-    <t>Daitya 1</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -125,9 +113,6 @@
     <t>Daitya 3</t>
   </si>
   <si>
-    <t>blade-9, 6d (5) imp</t>
-  </si>
-  <si>
     <t>torch-8, 7d (5) burn</t>
   </si>
   <si>
@@ -179,9 +164,6 @@
     <t>Vpod</t>
   </si>
   <si>
-    <t>5.25</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -194,24 +176,15 @@
     <t>Julijana</t>
   </si>
   <si>
-    <t>5.5</t>
-  </si>
-  <si>
     <t>pistol-10, 3d(3) pi-, acc 3</t>
   </si>
   <si>
     <t>Vanda</t>
   </si>
   <si>
-    <t>5.75</t>
-  </si>
-  <si>
     <t>Verner</t>
   </si>
   <si>
-    <t>Cutter-12, 3d (5) burn</t>
-  </si>
-  <si>
     <t>Airi</t>
   </si>
   <si>
@@ -227,9 +200,6 @@
     <t>Om</t>
   </si>
   <si>
-    <t>Paulletta</t>
-  </si>
-  <si>
     <t>Chizoba</t>
   </si>
   <si>
@@ -242,42 +212,21 @@
     <t>HD Dakuaitou 1</t>
   </si>
   <si>
-    <t>HD Dakuaitou 2</t>
-  </si>
-  <si>
-    <t>Espada</t>
-  </si>
-  <si>
-    <t>Shotgun-15, 6d pi++</t>
-  </si>
-  <si>
     <t>Mahmoud</t>
   </si>
   <si>
     <t>Tetsuo</t>
   </si>
   <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
     <t>Stefan</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
     <t>Vladi</t>
   </si>
   <si>
     <t>Rifle-11: 6d+2 (3) pi</t>
   </si>
   <si>
-    <t>Rifle-12: 6d+2 (3) pi</t>
-  </si>
-  <si>
     <t>Grenade-11: 5dx3 (10)</t>
   </si>
   <si>
@@ -288,6 +237,51 @@
   </si>
   <si>
     <t>Ocon SFF</t>
+  </si>
+  <si>
+    <t>Daitya</t>
+  </si>
+  <si>
+    <t>Zoe Diangelo</t>
+  </si>
+  <si>
+    <t>Maria 4</t>
+  </si>
+  <si>
+    <t>Will Bernstadt</t>
+  </si>
+  <si>
+    <t>pistol-9, 3d(3) pi-, acc 3</t>
+  </si>
+  <si>
+    <t>Tetsuo 1</t>
+  </si>
+  <si>
+    <t>Rifle-9: 6d+2 (3) pi</t>
+  </si>
+  <si>
+    <t>Grenade-8: 5dx3 (10)</t>
+  </si>
+  <si>
+    <t>Cutter-13, 3d (5) burn</t>
+  </si>
+  <si>
+    <t>Pauletta</t>
+  </si>
+  <si>
+    <t>Jolante</t>
+  </si>
+  <si>
+    <t>Hacking-12</t>
+  </si>
+  <si>
+    <t>pistol-10, 3d pi+, acc2</t>
+  </si>
+  <si>
+    <t>pistol-11, 3d pi+, acc2</t>
+  </si>
+  <si>
+    <t>3 (15)</t>
   </si>
 </sst>
 </file>
@@ -331,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -342,6 +336,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,11 +653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA1C932-CBEF-2845-A2B3-C7250724D51E}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,11 +665,13 @@
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="4" width="5.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8" style="8" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="5"/>
-    <col min="9" max="11" width="20.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -686,12 +685,12 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
@@ -711,240 +710,240 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G2" s="5">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5.75</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3">
-        <v>67</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>55</v>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>47</v>
+      <c r="F5" s="8">
+        <v>5.75</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
+      <c r="F6" s="8">
+        <v>5.25</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
+      <c r="A7" t="s">
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>55</v>
+      <c r="F7" s="8">
+        <v>5.5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
+      <c r="F8" s="8">
+        <v>5.75</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -955,618 +954,598 @@
       <c r="E10">
         <v>3</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>55</v>
+      <c r="F10" s="8">
+        <v>5.25</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>47</v>
+      <c r="F11" s="8">
+        <v>5.25</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>47</v>
+      <c r="F12" s="8">
+        <v>5.25</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
         <v>66</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
       </c>
       <c r="C14">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>47</v>
+      <c r="F14" s="8">
+        <v>5.25</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>63</v>
+        <v>42</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>96</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>70</v>
+      <c r="G18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>96</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20">
         <v>12</v>
       </c>
-      <c r="C20">
-        <v>96</v>
-      </c>
       <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="F20" s="8">
+        <v>5.25</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
+      <c r="F21" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>20</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>13</v>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>20</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C24">
-        <v>30</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="I24" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25">
-        <v>30</v>
-      </c>
-      <c r="E25">
-        <v>20</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26">
+        <v>67</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="G26" s="5">
+        <v>6</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>34</v>
+    </row>
+    <row r="27" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="8">
+        <v>5.25</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>71</v>
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>12</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>4</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>47</v>
+      <c r="F28" s="8">
+        <v>5.25</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>47</v>
+      <c r="F29" s="8">
+        <v>5.25</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>12</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>47</v>
+      <c r="F30" s="8">
+        <v>5.25</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>4</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>47</v>
+      <c r="F31" s="8">
+        <v>5.25</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>10</v>
       </c>
       <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="F32" s="8">
+        <v>5.25</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>78</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33">
-        <v>12</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
